--- a/examples/Pandora/data/excel_source/scenarios.xlsx
+++ b/examples/Pandora/data/excel_source/scenarios.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yus\Dropbox\ABM4ALL\Melodie\examples\Covid\data\excel_source\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yus\Dropbox\ABM4ALL\Melodie\examples\Pandora\data\excel_source\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="30915" windowHeight="7830"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="30920" windowHeight="7830"/>
   </bookViews>
   <sheets>
     <sheet name="Exo_ScenarioPara" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>number_of_run</t>
   </si>
@@ -31,18 +31,6 @@
   </si>
   <si>
     <t>id</t>
-  </si>
-  <si>
-    <t>grid_x_size</t>
-  </si>
-  <si>
-    <t>grid_y_size</t>
-  </si>
-  <si>
-    <t>infection_probability</t>
-  </si>
-  <si>
-    <t>initial_infected_percentage</t>
   </si>
 </sst>
 </file>
@@ -357,24 +345,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7265625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" customWidth="1"/>
-    <col min="4" max="4" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.1796875" customWidth="1"/>
+    <col min="4" max="4" width="18.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.1796875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -387,20 +375,8 @@
       <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>0</v>
       </c>
@@ -412,18 +388,6 @@
       </c>
       <c r="D2">
         <v>1000</v>
-      </c>
-      <c r="E2">
-        <v>100</v>
-      </c>
-      <c r="F2">
-        <v>100</v>
-      </c>
-      <c r="G2">
-        <v>0.1</v>
-      </c>
-      <c r="H2">
-        <v>0.1</v>
       </c>
     </row>
   </sheetData>
